--- a/Meta.xlsb.xlsx
+++ b/Meta.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian Wilburn\Desktop\Finance\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE0197-3878-4947-BC38-C027E467BFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A275A-A0EA-4518-B277-5744A821F10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="28300" xr2:uid="{EC066560-634F-4FB8-ABD3-B47D6793AFC5}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="28300" activeTab="1" xr2:uid="{EC066560-634F-4FB8-ABD3-B47D6793AFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="184">
   <si>
     <t xml:space="preserve">Fundamental Analysis of Facebook/Meta </t>
   </si>
@@ -1116,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C1C7E-AD83-4FC9-B0F2-BB9D3E931B60}">
-  <dimension ref="A2:L71"/>
+  <dimension ref="A2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,6 +1170,10 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
+      <c r="L5" s="16">
+        <f>L3*L4</f>
+        <v>744031.2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -1178,6 +1182,10 @@
       <c r="K6" t="s">
         <v>34</v>
       </c>
+      <c r="L6" s="16">
+        <f>Model!W55</f>
+        <v>58408</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -1186,6 +1194,10 @@
       <c r="K7" t="s">
         <v>35</v>
       </c>
+      <c r="L7" s="16">
+        <f>Model!W69</f>
+        <v>9922</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -1194,6 +1206,10 @@
       <c r="K8" t="s">
         <v>36</v>
       </c>
+      <c r="L8" s="16">
+        <f>L5+L6-L7</f>
+        <v>792517.2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -1456,6 +1472,9 @@
       <c r="G61" s="36"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
       <c r="B62" t="s">
         <v>164</v>
       </c>
@@ -1476,7 +1495,7 @@
       </c>
       <c r="J62" s="33">
         <f>Model!AR9</f>
-        <v>656917.07437943399</v>
+        <v>705403.07437943399</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -1516,7 +1535,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>167</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>166</v>
       </c>
@@ -1572,7 +1591,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>169</v>
       </c>
@@ -1600,10 +1619,10 @@
       </c>
       <c r="J67" s="33">
         <f>Model!AR13</f>
-        <v>248.832225143725</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+        <v>267.1981342346341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>173</v>
       </c>
@@ -1631,7 +1650,7 @@
         <v>281.83</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>172</v>
       </c>
@@ -1656,10 +1675,13 @@
       </c>
       <c r="J69" s="33">
         <f>J67-J68</f>
-        <v>-32.997774856274987</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+        <v>-14.631865765365887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
       <c r="B70" t="s">
         <v>92</v>
       </c>
@@ -1684,11 +1706,16 @@
       </c>
       <c r="J70" s="12">
         <f>J69/J67</f>
-        <v>-0.13261053642555959</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+        <v>-5.4760359039473086E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G71" s="12"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,11 +1727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AA7B31-7C0E-460C-B040-0996B48968C7}">
   <dimension ref="A1:EH145"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AG5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW10" sqref="AW10"/>
+      <selection pane="bottomRight" activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1712,6 +1739,7 @@
     <col min="1" max="1" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
@@ -2330,8 +2358,8 @@
         <v>157</v>
       </c>
       <c r="AR9" s="33">
-        <f>NPV($AR$10,$AN$38:$EH$38)</f>
-        <v>656917.07437943399</v>
+        <f>NPV($AR$10,$AN$38:$EH$38)+Cover!L6-Cover!L7</f>
+        <v>705403.07437943399</v>
       </c>
       <c r="AU9" s="13"/>
     </row>
@@ -2555,7 +2583,7 @@
       </c>
       <c r="AR13" s="33">
         <f>$AR$9/Cover!$L$4</f>
-        <v>248.832225143725</v>
+        <v>267.1981342346341</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
@@ -2715,7 +2743,7 @@
       </c>
       <c r="AR15" s="33">
         <f>$AR$13-$AR$14</f>
-        <v>-32.997774856274987</v>
+        <v>-14.631865765365887</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.35">
@@ -2741,7 +2769,7 @@
       </c>
       <c r="AR16" s="12">
         <f>$AR$15/$AR$13</f>
-        <v>-0.13261053642555959</v>
+        <v>-5.4760359039473086E-2</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
@@ -3360,11 +3388,11 @@
         <v>119076.15000000002</v>
       </c>
       <c r="AO25" s="16">
-        <f t="shared" ref="AO25:AU25" si="10">IF($AO$11=1,AN25*(1+$AL$11),IF($AO$11=2,AN25*(1+$AM$11),AN25*(1+$AN$11)))</f>
+        <f>IF($AO$11=1,AN25*(1+$AL$11),IF($AO$11=2,AN25*(1+$AM$11),AN25*(1+$AN$11)))</f>
         <v>113122.34250000001</v>
       </c>
       <c r="AP25" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AO25:AU25" si="10">IF($AO$11=1,AO25*(1+$AL$11),IF($AO$11=2,AO25*(1+$AM$11),AO25*(1+$AN$11)))</f>
         <v>107466.22537500001</v>
       </c>
       <c r="AQ25" s="16">
@@ -5183,11 +5211,11 @@
         <v>80270.904300893293</v>
       </c>
       <c r="AV38" s="16">
-        <f t="shared" ref="AV38:CA38" si="33">AU38*(1+$AR$11)</f>
+        <f>AU38*(1+$AR$11)</f>
         <v>77862.777171866488</v>
       </c>
       <c r="AW38" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AV38:CA38" si="33">AV38*(1+$AR$11)</f>
         <v>75526.893856710492</v>
       </c>
       <c r="AX38" s="16">
@@ -5844,6 +5872,7 @@
       <c r="W41" s="6"/>
       <c r="Y41" s="13"/>
       <c r="AM41" s="6"/>
+      <c r="AY41" s="29"/>
     </row>
     <row r="42" spans="1:138" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
@@ -5997,6 +6026,7 @@
         <f t="shared" si="40"/>
         <v>0.26432925042555122</v>
       </c>
+      <c r="AY42" s="34"/>
     </row>
     <row r="43" spans="1:138" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
@@ -7526,6 +7556,10 @@
       <c r="W72" s="20">
         <v>-2981</v>
       </c>
+      <c r="Z72" s="16">
+        <f>W62-W74</f>
+        <v>14313</v>
+      </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -7606,9 +7640,10 @@
         <v>186252</v>
       </c>
       <c r="W74" s="20">
-        <f t="shared" si="63"/>
+        <f>SUM(W64:W73)</f>
         <v>184980</v>
       </c>
+      <c r="Y74" s="16"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -8533,7 +8568,7 @@
         <v>15568.153697963411</v>
       </c>
       <c r="W103" s="20">
-        <f t="shared" si="71"/>
+        <f>SUM(T102:W102)</f>
         <v>11795.522036076982</v>
       </c>
     </row>
